--- a/Scripts/parameters_output_27037.xlsx
+++ b/Scripts/parameters_output_27037.xlsx
@@ -658,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>4860862.110412863</v>
+        <v>3781156.372770971</v>
       </c>
       <c r="H7">
-        <v>36048.51295704202</v>
+        <v>43983.06292381449</v>
       </c>
       <c r="I7">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="J7">
-        <v>117350.9669946379</v>
+        <v>88201.84525038146</v>
       </c>
     </row>
     <row r="8" spans="1:10">
